--- a/Schneeregellasten.xlsx
+++ b/Schneeregellasten.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großhöflein  </t>
+          <t xml:space="preserve">Grosshoeflein  </t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mörbisch am See  </t>
+          <t xml:space="preserve">Moerbisch am See  </t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Müllendorf  </t>
+          <t xml:space="preserve">Muellendorf  </t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schützen am Gebirge  </t>
+          <t xml:space="preserve">Schuetzen am Gebirge  </t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großmürbisch  </t>
+          <t xml:space="preserve">Grossmuerbisch  </t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Güssing  </t>
+          <t xml:space="preserve">Guessing  </t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Güttenbach  </t>
+          <t xml:space="preserve">Guettenbach  </t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kleinmürbisch  </t>
+          <t xml:space="preserve">Kleinmuerbisch  </t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neustift bei Güssing  </t>
+          <t xml:space="preserve">Neustift bei Guessing  </t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wörterberg  </t>
+          <t xml:space="preserve">Woerterberg  </t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Königsdorf  </t>
+          <t xml:space="preserve">Koenigsdorf  </t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühlgraben  </t>
+          <t xml:space="preserve">Muehlgraben  </t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Draßburg  </t>
+          <t xml:space="preserve">Drassburg  </t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neudörfl  </t>
+          <t xml:space="preserve">Neudoerfl  </t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöttelsdorf  </t>
+          <t xml:space="preserve">Poettelsdorf  </t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöttsching  </t>
+          <t xml:space="preserve">Poettsching  </t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sigleß  </t>
+          <t xml:space="preserve">Sigless  </t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zemendorf-Stöttera  </t>
+          <t xml:space="preserve">Zemendorf-Stoettera  </t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mönchhof  </t>
+          <t xml:space="preserve">Moenchhof  </t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Andrä am Zicksee  </t>
+          <t xml:space="preserve">Sankt Andrae am Zicksee  </t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Draßmarkt  </t>
+          <t xml:space="preserve">Drassmarkt  </t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großwarasdorf  </t>
+          <t xml:space="preserve">Grosswarasdorf  </t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Steinberg-Dörfl  </t>
+          <t xml:space="preserve">Steinberg-Doerfl  </t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deutsch Schützen-Eisenberg  </t>
+          <t xml:space="preserve">Deutsch Schuetzen-Eisenberg  </t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großpetersdorf  </t>
+          <t xml:space="preserve">Grosspetersdorf  </t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oberschützen  </t>
+          <t xml:space="preserve">Oberschuetzen  </t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unterkohlstätten  </t>
+          <t xml:space="preserve">Unterkohlstaetten  </t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feldkirchen in Kärnten  </t>
+          <t xml:space="preserve">Feldkirchen in Kaernten  </t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kötschach-Mauthen  </t>
+          <t xml:space="preserve">Koetschach-Mauthen  </t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ebenthal in Kärnten  </t>
+          <t xml:space="preserve">Ebenthal in Kaernten  </t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köttmannsdorf  </t>
+          <t xml:space="preserve">Koettmannsdorf  </t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krumpendorf am Wörther See  </t>
+          <t xml:space="preserve">Krumpendorf am Woerther See  </t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maria Wörth  </t>
+          <t xml:space="preserve">Maria Woerth  </t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pörtschach am Wörther See  </t>
+          <t xml:space="preserve">Poertschach am Woerther See  </t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Techelsberg am Wörther See  </t>
+          <t xml:space="preserve">Techelsberg am Woerther See  </t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brückl  </t>
+          <t xml:space="preserve">Brueckl  </t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Glödnitz  </t>
+          <t xml:space="preserve">Gloednitz  </t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüttenberg  </t>
+          <t xml:space="preserve">Huettenberg  </t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mölbling  </t>
+          <t xml:space="preserve">Moelbling  </t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Georgen am Längsee  </t>
+          <t xml:space="preserve">Sankt Georgen am Laengsee  </t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straßburg  </t>
+          <t xml:space="preserve">Strassburg  </t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gmünd in Kärnten  </t>
+          <t xml:space="preserve">Gmuend in Kaernten  </t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großkirchheim  </t>
+          <t xml:space="preserve">Grosskirchheim  </t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krems in Kärnten  </t>
+          <t xml:space="preserve">Krems in Kaernten  </t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mörtschach  </t>
+          <t xml:space="preserve">Moertschach  </t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühldorf  </t>
+          <t xml:space="preserve">Muehldorf  </t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reißeck  </t>
+          <t xml:space="preserve">Reisseck  </t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißensee  </t>
+          <t xml:space="preserve">Weissensee  </t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nötsch im Gailtal  </t>
+          <t xml:space="preserve">Noetsch im Gailtal  </t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Velden am Wörther See  </t>
+          <t xml:space="preserve">Velden am Woerther See  </t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenstein  </t>
+          <t xml:space="preserve">Weissenstein  </t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Völkermarkt  </t>
+          <t xml:space="preserve">Voelkermarkt  </t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lavamünd  </t>
+          <t xml:space="preserve">Lavamuend  </t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Andrä  </t>
+          <t xml:space="preserve">Sankt Andrae  </t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Pölten  </t>
+          <t xml:space="preserve">Sankt Poelten  </t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bad Vöslau  </t>
+          <t xml:space="preserve">Bad Voeslau  </t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blumau-Neurißhof  </t>
+          <t xml:space="preserve">Blumau-Neurisshof  </t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Günselsdorf  </t>
+          <t xml:space="preserve">Guenselsdorf  </t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pfaffstätten  </t>
+          <t xml:space="preserve">Pfaffstaetten  </t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönau an der Triesting  </t>
+          <t xml:space="preserve">Schoenau an der Triesting  </t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sooß  </t>
+          <t xml:space="preserve">Sooss  </t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göttlesbrunn-Arbesthal  </t>
+          <t xml:space="preserve">Goettlesbrunn-Arbesthal  </t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Götzendorf an der Leitha  </t>
+          <t xml:space="preserve">Goetzendorf an der Leitha  </t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höflein  </t>
+          <t xml:space="preserve">Hoeflein  </t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Drösing  </t>
+          <t xml:space="preserve">Droesing  </t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dürnkrut  </t>
+          <t xml:space="preserve">Duernkrut  </t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gänserndorf  </t>
+          <t xml:space="preserve">Gaenserndorf  </t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß-Enzersdorf  </t>
+          <t xml:space="preserve">Gross-Enzersdorf  </t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß-Schweinbarth  </t>
+          <t xml:space="preserve">Gross-Schweinbarth  </t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großhofen  </t>
+          <t xml:space="preserve">Grosshofen  </t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönkirchen-Reyersdorf  </t>
+          <t xml:space="preserve">Schoenkirchen-Reyersdorf  </t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t xml:space="preserve">Velm-Götzendorf  </t>
+          <t xml:space="preserve">Velm-Goetzendorf  </t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bad Großpertholz  </t>
+          <t xml:space="preserve">Bad Grosspertholz  </t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gmünd  </t>
+          <t xml:space="preserve">Gmuend  </t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großdietmanns  </t>
+          <t xml:space="preserve">Grossdietmanns  </t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großschönau  </t>
+          <t xml:space="preserve">Grossschoenau  </t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göllersdorf  </t>
+          <t xml:space="preserve">Goellersdorf  </t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hohenwarth-Mühlbach a.M.  </t>
+          <t xml:space="preserve">Hohenwarth-Muehlbach a.M.  </t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t xml:space="preserve">Burgschleinitz-Kühnring  </t>
+          <t xml:space="preserve">Burgschleinitz-Kuehnring  </t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t xml:space="preserve">Röhrenbach  </t>
+          <t xml:space="preserve">Roehrenbach  </t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t xml:space="preserve">Röschitz  </t>
+          <t xml:space="preserve">Roeschitz  </t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großmugl  </t>
+          <t xml:space="preserve">Grossmugl  </t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großrußbach  </t>
+          <t xml:space="preserve">Grossrussbach  </t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rußbach  </t>
+          <t xml:space="preserve">Russbach  </t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Albrechtsberg an der Großen Krems  </t>
+          <t xml:space="preserve">Albrechtsberg an der Grossen Krems  </t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droß  </t>
+          <t xml:space="preserve">Dross  </t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dürnstein  </t>
+          <t xml:space="preserve">Duernstein  </t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t xml:space="preserve">Furth bei Göttweig  </t>
+          <t xml:space="preserve">Furth bei Goettweig  </t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gföhl  </t>
+          <t xml:space="preserve">Gfoehl  </t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühldorf  </t>
+          <t xml:space="preserve">Muehldorf  </t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -16189,7 +16189,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönberg am Kamp  </t>
+          <t xml:space="preserve">Schoenberg am Kamp  </t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straß im Straßertale  </t>
+          <t xml:space="preserve">Strass im Strassertale  </t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -16363,7 +16363,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenkirchen in der Wachau  </t>
+          <t xml:space="preserve">Weissenkirchen in der Wachau  </t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rohrbach an der Gölsen  </t>
+          <t xml:space="preserve">Rohrbach an der Goelsen  </t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Veit an der Gölsen  </t>
+          <t xml:space="preserve">Sankt Veit an der Goelsen  </t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Türnitz  </t>
+          <t xml:space="preserve">Tuernitz  </t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">Artstetten-Pöbring  </t>
+          <t xml:space="preserve">Artstetten-Poebring  </t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -17088,7 +17088,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hürm  </t>
+          <t xml:space="preserve">Huerm  </t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -17175,7 +17175,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t xml:space="preserve">Klein-Pöchlarn  </t>
+          <t xml:space="preserve">Klein-Poechlarn  </t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krummnußbaum  </t>
+          <t xml:space="preserve">Krummnussbaum  </t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -17407,7 +17407,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">Münichreith-Laimbach  </t>
+          <t xml:space="preserve">Muenichreith-Laimbach  </t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nöchling  </t>
+          <t xml:space="preserve">Noechling  </t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöchlarn  </t>
+          <t xml:space="preserve">Poechlarn  </t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöggstall  </t>
+          <t xml:space="preserve">Poeggstall  </t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönbühel-Aggsbach  </t>
+          <t xml:space="preserve">Schoenbuehel-Aggsbach  </t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bockfließ  </t>
+          <t xml:space="preserve">Bockfliess  </t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß-Engersdorf  </t>
+          <t xml:space="preserve">Gross-Engersdorf  </t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großebersdorf  </t>
+          <t xml:space="preserve">Grossebersdorf  </t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großharras  </t>
+          <t xml:space="preserve">Grossharras  </t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -18335,7 +18335,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großkrut  </t>
+          <t xml:space="preserve">Grosskrut  </t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wildendürnbach  </t>
+          <t xml:space="preserve">Wildenduernbach  </t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gießhübl  </t>
+          <t xml:space="preserve">Giesshuebl  </t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hinterbrühl  </t>
+          <t xml:space="preserve">Hinterbruehl  </t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mödling  </t>
+          <t xml:space="preserve">Moedling  </t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve">Münchendorf  </t>
+          <t xml:space="preserve">Muenchendorf  </t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -19495,7 +19495,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vösendorf  </t>
+          <t xml:space="preserve">Voesendorf  </t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bürg-Vöstenhof  </t>
+          <t xml:space="preserve">Buerg-Voestenhof  </t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -19959,7 +19959,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grünbach am Schneeberg  </t>
+          <t xml:space="preserve">Gruenbach am Schneeberg  </t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höflein an der Hohen Wand  </t>
+          <t xml:space="preserve">Hoeflein an der Hohen Wand  </t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mönichkirchen  </t>
+          <t xml:space="preserve">Moenichkirchen  </t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t xml:space="preserve">Würflach  </t>
+          <t xml:space="preserve">Wuerflach  </t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zöbern  </t>
+          <t xml:space="preserve">Zoebern  </t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">Böheimkirchen  </t>
+          <t xml:space="preserve">Boeheimkirchen  </t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hofstetten-Grünau  </t>
+          <t xml:space="preserve">Hofstetten-Gruenau  </t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -21264,7 +21264,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kasten bei Böheimkirchen  </t>
+          <t xml:space="preserve">Kasten bei Boeheimkirchen  </t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -21554,7 +21554,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nußdorf ob der Traisen  </t>
+          <t xml:space="preserve">Nussdorf ob der Traisen  </t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -21815,7 +21815,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stössing  </t>
+          <t xml:space="preserve">Stoessing  </t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenkirchen an der Perschling  </t>
+          <t xml:space="preserve">Weissenkirchen an der Perschling  </t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -21960,7 +21960,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wölbling  </t>
+          <t xml:space="preserve">Woelbling  </t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göstling an der Ybbs  </t>
+          <t xml:space="preserve">Goestling an der Ybbs  </t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Anton an der Jeßnitz  </t>
+          <t xml:space="preserve">Sankt Anton an der Jessnitz  </t>
         </is>
       </c>
       <c r="C754" t="n">
@@ -22598,7 +22598,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grafenwörth  </t>
+          <t xml:space="preserve">Grafenwoerth  </t>
         </is>
       </c>
       <c r="C765" t="n">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großriedenthal  </t>
+          <t xml:space="preserve">Grossriedenthal  </t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großweikersdorf  </t>
+          <t xml:space="preserve">Grossweikersdorf  </t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t xml:space="preserve">Königsbrunn am Wagram  </t>
+          <t xml:space="preserve">Koenigsbrunn am Wagram  </t>
         </is>
       </c>
       <c r="C770" t="n">
@@ -22772,7 +22772,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Königstetten  </t>
+          <t xml:space="preserve">Koenigstetten  </t>
         </is>
       </c>
       <c r="C771" t="n">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Andrä-Wördern  </t>
+          <t xml:space="preserve">Sankt Andrae-Woerdern  </t>
         </is>
       </c>
       <c r="C775" t="n">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve">Würmla  </t>
+          <t xml:space="preserve">Wuermla  </t>
         </is>
       </c>
       <c r="C780" t="n">
@@ -23207,7 +23207,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß-Siegharts  </t>
+          <t xml:space="preserve">Gross-Siegharts  </t>
         </is>
       </c>
       <c r="C786" t="n">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bad Schönau  </t>
+          <t xml:space="preserve">Bad Schoenau  </t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -24048,7 +24048,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lichtenwörth  </t>
+          <t xml:space="preserve">Lichtenwoerth  </t>
         </is>
       </c>
       <c r="C815" t="n">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matzendorf-Hölles  </t>
+          <t xml:space="preserve">Matzendorf-Hoelles  </t>
         </is>
       </c>
       <c r="C817" t="n">
@@ -24512,7 +24512,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wöllersdorf-Steinabrückl  </t>
+          <t xml:space="preserve">Woellersdorf-Steinabrueckl  </t>
         </is>
       </c>
       <c r="C831" t="n">
@@ -25150,7 +25150,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwölfaxing  </t>
+          <t xml:space="preserve">Zwoelfaxing  </t>
         </is>
       </c>
       <c r="C853" t="n">
@@ -25266,7 +25266,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bärnkopf  </t>
+          <t xml:space="preserve">Baernkopf  </t>
         </is>
       </c>
       <c r="C857" t="n">
@@ -25324,7 +25324,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göpfritz an der Wild  </t>
+          <t xml:space="preserve">Goepfritz an der Wild  </t>
         </is>
       </c>
       <c r="C859" t="n">
@@ -25382,7 +25382,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß Gerungs  </t>
+          <t xml:space="preserve">Gross Gerungs  </t>
         </is>
       </c>
       <c r="C861" t="n">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großgöttfritz  </t>
+          <t xml:space="preserve">Grossgoettfritz  </t>
         </is>
       </c>
       <c r="C862" t="n">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pölla  </t>
+          <t xml:space="preserve">Poella  </t>
         </is>
       </c>
       <c r="C869" t="n">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönbach  </t>
+          <t xml:space="preserve">Schoenbach  </t>
         </is>
       </c>
       <c r="C872" t="n">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwettl-Niederösterreich  </t>
+          <t xml:space="preserve">Zwettl-Niederoesterreich  </t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höhnhart  </t>
+          <t xml:space="preserve">Hoehnhart  </t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -26832,7 +26832,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pfaffstätt  </t>
+          <t xml:space="preserve">Pfaffstaett  </t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roßbach  </t>
+          <t xml:space="preserve">Rossbach  </t>
         </is>
       </c>
       <c r="C914" t="n">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t xml:space="preserve">Überackern  </t>
+          <t xml:space="preserve">Ueberackern  </t>
         </is>
       </c>
       <c r="C925" t="n">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grünbach  </t>
+          <t xml:space="preserve">Gruenbach  </t>
         </is>
       </c>
       <c r="C941" t="n">
@@ -27760,7 +27760,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hagenberg im Mühlkreis  </t>
+          <t xml:space="preserve">Hagenberg im Muehlkreis  </t>
         </is>
       </c>
       <c r="C943" t="n">
@@ -27789,7 +27789,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hirschbach im Mühlkreis  </t>
+          <t xml:space="preserve">Hirschbach im Muehlkreis  </t>
         </is>
       </c>
       <c r="C944" t="n">
@@ -27876,7 +27876,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t xml:space="preserve">Königswiesen  </t>
+          <t xml:space="preserve">Koenigswiesen  </t>
         </is>
       </c>
       <c r="C947" t="n">
@@ -27992,7 +27992,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neumarkt im Mühlkreis  </t>
+          <t xml:space="preserve">Neumarkt im Muehlkreis  </t>
         </is>
       </c>
       <c r="C951" t="n">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rainbach im Mühlkreis  </t>
+          <t xml:space="preserve">Rainbach im Muehlkreis  </t>
         </is>
       </c>
       <c r="C954" t="n">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönau im Mühlkreis  </t>
+          <t xml:space="preserve">Schoenau im Muehlkreis  </t>
         </is>
       </c>
       <c r="C958" t="n">
@@ -28253,7 +28253,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unterweißenbach  </t>
+          <t xml:space="preserve">Unterweissenbach  </t>
         </is>
       </c>
       <c r="C960" t="n">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t xml:space="preserve">Altmünster  </t>
+          <t xml:space="preserve">Altmuenster  </t>
         </is>
       </c>
       <c r="C966" t="n">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grünau im Almtal  </t>
+          <t xml:space="preserve">Gruenau im Almtal  </t>
         </is>
       </c>
       <c r="C972" t="n">
@@ -29587,7 +29587,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pötting  </t>
+          <t xml:space="preserve">Poetting  </t>
         </is>
       </c>
       <c r="C1006" t="n">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlüßlberg  </t>
+          <t xml:space="preserve">Schluesslberg  </t>
         </is>
       </c>
       <c r="C1012" t="n">
@@ -30022,7 +30022,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grünburg  </t>
+          <t xml:space="preserve">Gruenburg  </t>
         </is>
       </c>
       <c r="C1021" t="n">
@@ -30167,7 +30167,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kremsmünster  </t>
+          <t xml:space="preserve">Kremsmuenster  </t>
         </is>
       </c>
       <c r="C1026" t="n">
@@ -30196,7 +30196,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t xml:space="preserve">Micheldorf in Oberösterreich  </t>
+          <t xml:space="preserve">Micheldorf in Oberoesterreich  </t>
         </is>
       </c>
       <c r="C1027" t="n">
@@ -30254,7 +30254,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nußbach  </t>
+          <t xml:space="preserve">Nussbach  </t>
         </is>
       </c>
       <c r="C1029" t="n">
@@ -30370,7 +30370,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rosenau am Hengstpaß  </t>
+          <t xml:space="preserve">Rosenau am Hengstpass  </t>
         </is>
       </c>
       <c r="C1033" t="n">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roßleithen  </t>
+          <t xml:space="preserve">Rossleithen  </t>
         </is>
       </c>
       <c r="C1034" t="n">
@@ -30863,7 +30863,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hörsching  </t>
+          <t xml:space="preserve">Hoersching  </t>
         </is>
       </c>
       <c r="C1050" t="n">
@@ -31298,7 +31298,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allerheiligen im Mühlkreis  </t>
+          <t xml:space="preserve">Allerheiligen im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1065" t="n">
@@ -31646,7 +31646,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t xml:space="preserve">Münzbach  </t>
+          <t xml:space="preserve">Muenzbach  </t>
         </is>
       </c>
       <c r="C1077" t="n">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aurolzmünster  </t>
+          <t xml:space="preserve">Aurolzmuenster  </t>
         </is>
       </c>
       <c r="C1093" t="n">
@@ -32400,7 +32400,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lohnsburg am Kobernaußerwald  </t>
+          <t xml:space="preserve">Lohnsburg am Kobernausserwald  </t>
         </is>
       </c>
       <c r="C1103" t="n">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mörschwang  </t>
+          <t xml:space="preserve">Moerschwang  </t>
         </is>
       </c>
       <c r="C1106" t="n">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühlheim am Inn  </t>
+          <t xml:space="preserve">Muehlheim am Inn  </t>
         </is>
       </c>
       <c r="C1107" t="n">
@@ -33154,7 +33154,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aigen im Mühlkreis  </t>
+          <t xml:space="preserve">Aigen im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1129" t="n">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haslach an der Mühl  </t>
+          <t xml:space="preserve">Haslach an der Muehl  </t>
         </is>
       </c>
       <c r="C1135" t="n">
@@ -33386,7 +33386,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hofkirchen im Mühlkreis  </t>
+          <t xml:space="preserve">Hofkirchen im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1137" t="n">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hörbich  </t>
+          <t xml:space="preserve">Hoerbich  </t>
         </is>
       </c>
       <c r="C1138" t="n">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kleinzell im Mühlkreis  </t>
+          <t xml:space="preserve">Kleinzell im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1142" t="n">
@@ -33589,7 +33589,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lembach im Mühlkreis  </t>
+          <t xml:space="preserve">Lembach im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1144" t="n">
@@ -33618,7 +33618,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lichtenau im Mühlkreis  </t>
+          <t xml:space="preserve">Lichtenau im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1145" t="n">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neustift im Mühlkreis  </t>
+          <t xml:space="preserve">Neustift im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1148" t="n">
@@ -33850,7 +33850,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peilstein im Mühlviertel  </t>
+          <t xml:space="preserve">Peilstein im Muehlviertel  </t>
         </is>
       </c>
       <c r="C1153" t="n">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pfarrkirchen im Mühlkreis  </t>
+          <t xml:space="preserve">Pfarrkirchen im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1154" t="n">
@@ -33937,7 +33937,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rohrbach in Oberösterreich  </t>
+          <t xml:space="preserve">Rohrbach in Oberoesterreich  </t>
         </is>
       </c>
       <c r="C1156" t="n">
@@ -33995,7 +33995,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Martin im Mühlkreis  </t>
+          <t xml:space="preserve">Sankt Martin im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1158" t="n">
@@ -34111,7 +34111,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Ulrich im Mühlkreis  </t>
+          <t xml:space="preserve">Sankt Ulrich im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1162" t="n">
@@ -34140,7 +34140,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Veit im Mühlkreis  </t>
+          <t xml:space="preserve">Sankt Veit im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1163" t="n">
@@ -34198,7 +34198,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlägl  </t>
+          <t xml:space="preserve">Schlaegl  </t>
         </is>
       </c>
       <c r="C1165" t="n">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönegg  </t>
+          <t xml:space="preserve">Schoenegg  </t>
         </is>
       </c>
       <c r="C1166" t="n">
@@ -34256,7 +34256,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schwarzenberg am Böhmerwald  </t>
+          <t xml:space="preserve">Schwarzenberg am Boehmerwald  </t>
         </is>
       </c>
       <c r="C1167" t="n">
@@ -34662,7 +34662,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Münzkirchen  </t>
+          <t xml:space="preserve">Muenzkirchen  </t>
         </is>
       </c>
       <c r="C1181" t="n">
@@ -34836,7 +34836,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Marienkirchen bei Schärding  </t>
+          <t xml:space="preserve">Sankt Marienkirchen bei Schaerding  </t>
         </is>
       </c>
       <c r="C1187" t="n">
@@ -34952,7 +34952,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schärding  </t>
+          <t xml:space="preserve">Schaerding  </t>
         </is>
       </c>
       <c r="C1191" t="n">
@@ -35358,7 +35358,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großraming  </t>
+          <t xml:space="preserve">Grossraming  </t>
         </is>
       </c>
       <c r="C1205" t="n">
@@ -35996,7 +35996,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goldwörth  </t>
+          <t xml:space="preserve">Goldwoerth  </t>
         </is>
       </c>
       <c r="C1227" t="n">
@@ -36054,7 +36054,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haibach im Mühlkreis  </t>
+          <t xml:space="preserve">Haibach im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1229" t="n">
@@ -36083,7 +36083,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hellmonsödt  </t>
+          <t xml:space="preserve">Hellmonsoedt  </t>
         </is>
       </c>
       <c r="C1230" t="n">
@@ -36228,7 +36228,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ottenschlag im Mühlkreis  </t>
+          <t xml:space="preserve">Ottenschlag im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1235" t="n">
@@ -36315,7 +36315,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reichenau im Mühlkreis  </t>
+          <t xml:space="preserve">Reichenau im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1238" t="n">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Gotthard im Mühlkreis  </t>
+          <t xml:space="preserve">Sankt Gotthard im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1240" t="n">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sonnberg im Mühlkreis  </t>
+          <t xml:space="preserve">Sonnberg im Muehlkreis  </t>
         </is>
       </c>
       <c r="C1242" t="n">
@@ -36489,7 +36489,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vorderweißenbach  </t>
+          <t xml:space="preserve">Vorderweissenbach  </t>
         </is>
       </c>
       <c r="C1244" t="n">
@@ -37011,7 +37011,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neukirchen an der Vöckla  </t>
+          <t xml:space="preserve">Neukirchen an der Voeckla  </t>
         </is>
       </c>
       <c r="C1262" t="n">
@@ -37069,7 +37069,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nußdorf am Attersee  </t>
+          <t xml:space="preserve">Nussdorf am Attersee  </t>
         </is>
       </c>
       <c r="C1264" t="n">
@@ -37301,7 +37301,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöndorf  </t>
+          <t xml:space="preserve">Poendorf  </t>
         </is>
       </c>
       <c r="C1272" t="n">
@@ -37359,7 +37359,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pühret  </t>
+          <t xml:space="preserve">Puehret  </t>
         </is>
       </c>
       <c r="C1274" t="n">
@@ -37475,7 +37475,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rüstorf  </t>
+          <t xml:space="preserve">Ruestorf  </t>
         </is>
       </c>
       <c r="C1278" t="n">
@@ -37620,7 +37620,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schörfling am Attersee  </t>
+          <t xml:space="preserve">Schoerfling am Attersee  </t>
         </is>
       </c>
       <c r="C1283" t="n">
@@ -37736,7 +37736,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straß im Attergau  </t>
+          <t xml:space="preserve">Strass im Attergau  </t>
         </is>
       </c>
       <c r="C1287" t="n">
@@ -37881,7 +37881,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vöcklabruck  </t>
+          <t xml:space="preserve">Voecklabruck  </t>
         </is>
       </c>
       <c r="C1292" t="n">
@@ -37910,7 +37910,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vöcklamarkt  </t>
+          <t xml:space="preserve">Voecklamarkt  </t>
         </is>
       </c>
       <c r="C1293" t="n">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenkirchen im Attergau  </t>
+          <t xml:space="preserve">Weissenkirchen im Attergau  </t>
         </is>
       </c>
       <c r="C1294" t="n">
@@ -38577,7 +38577,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schleißheim  </t>
+          <t xml:space="preserve">Schleissheim  </t>
         </is>
       </c>
       <c r="C1316" t="n">
@@ -38751,7 +38751,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißkirchen an der Traun  </t>
+          <t xml:space="preserve">Weisskirchen an der Traun  </t>
         </is>
       </c>
       <c r="C1322" t="n">
@@ -38867,7 +38867,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annaberg-Lungötz  </t>
+          <t xml:space="preserve">Annaberg-Lungoetz  </t>
         </is>
       </c>
       <c r="C1326" t="n">
@@ -39099,7 +39099,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rußbach am Paß Gschütt  </t>
+          <t xml:space="preserve">Russbach am Pass Gschuett  </t>
         </is>
       </c>
       <c r="C1334" t="n">
@@ -39302,7 +39302,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bürmoos  </t>
+          <t xml:space="preserve">Buermoos  </t>
         </is>
       </c>
       <c r="C1341" t="n">
@@ -39534,7 +39534,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göming  </t>
+          <t xml:space="preserve">Goeming  </t>
         </is>
       </c>
       <c r="C1349" t="n">
@@ -39563,7 +39563,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grödig  </t>
+          <t xml:space="preserve">Groedig  </t>
         </is>
       </c>
       <c r="C1350" t="n">
@@ -39592,7 +39592,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großgmain  </t>
+          <t xml:space="preserve">Grossgmain  </t>
         </is>
       </c>
       <c r="C1351" t="n">
@@ -39766,7 +39766,7 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köstendorf  </t>
+          <t xml:space="preserve">Koestendorf  </t>
         </is>
       </c>
       <c r="C1357" t="n">
@@ -39882,7 +39882,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nußdorf am Haunsberg  </t>
+          <t xml:space="preserve">Nussdorf am Haunsberg  </t>
         </is>
       </c>
       <c r="C1361" t="n">
@@ -40143,7 +40143,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straßwalchen  </t>
+          <t xml:space="preserve">Strasswalchen  </t>
         </is>
       </c>
       <c r="C1370" t="n">
@@ -40549,7 +40549,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großarl  </t>
+          <t xml:space="preserve">Grossarl  </t>
         </is>
       </c>
       <c r="C1384" t="n">
@@ -40578,7 +40578,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüttau  </t>
+          <t xml:space="preserve">Huettau  </t>
         </is>
       </c>
       <c r="C1385" t="n">
@@ -40607,7 +40607,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüttschlag  </t>
+          <t xml:space="preserve">Huettschlag  </t>
         </is>
       </c>
       <c r="C1386" t="n">
@@ -40665,7 +40665,7 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühlbach am Hochkönig  </t>
+          <t xml:space="preserve">Muehlbach am Hochkoenig  </t>
         </is>
       </c>
       <c r="C1388" t="n">
@@ -40984,7 +40984,7 @@
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göriach  </t>
+          <t xml:space="preserve">Goeriach  </t>
         </is>
       </c>
       <c r="C1399" t="n">
@@ -41158,7 +41158,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Andrä im Lungau  </t>
+          <t xml:space="preserve">Sankt Andrae im Lungau  </t>
         </is>
       </c>
       <c r="C1405" t="n">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißpriach  </t>
+          <t xml:space="preserve">Weisspriach  </t>
         </is>
       </c>
       <c r="C1412" t="n">
@@ -41448,7 +41448,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bruck an der Großglocknerstraße  </t>
+          <t xml:space="preserve">Bruck an der Grossglocknerstrasse  </t>
         </is>
       </c>
       <c r="C1415" t="n">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dienten am Hochkönig  </t>
+          <t xml:space="preserve">Dienten am Hochkoenig  </t>
         </is>
       </c>
       <c r="C1416" t="n">
@@ -41506,7 +41506,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fusch an der Großglocknerstraße  </t>
+          <t xml:space="preserve">Fusch an der Grossglocknerstrasse  </t>
         </is>
       </c>
       <c r="C1417" t="n">
@@ -41796,7 +41796,7 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neukirchen am Großvenediger  </t>
+          <t xml:space="preserve">Neukirchen am Grossvenediger  </t>
         </is>
       </c>
       <c r="C1427" t="n">
@@ -42173,7 +42173,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißbach bei Lofer  </t>
+          <t xml:space="preserve">Weissbach bei Lofer  </t>
         </is>
       </c>
       <c r="C1440" t="n">
@@ -42376,7 +42376,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t xml:space="preserve">Etmißl  </t>
+          <t xml:space="preserve">Etmissl  </t>
         </is>
       </c>
       <c r="C1447" t="n">
@@ -42434,7 +42434,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gußwerk  </t>
+          <t xml:space="preserve">Gusswerk  </t>
         </is>
       </c>
       <c r="C1449" t="n">
@@ -42695,7 +42695,7 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Lorenzen im Mürztal  </t>
+          <t xml:space="preserve">Sankt Lorenzen im Muerztal  </t>
         </is>
       </c>
       <c r="C1458" t="n">
@@ -42724,7 +42724,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Marein im Mürztal  </t>
+          <t xml:space="preserve">Sankt Marein im Muerztal  </t>
         </is>
       </c>
       <c r="C1459" t="n">
@@ -42782,7 +42782,7 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thörl  </t>
+          <t xml:space="preserve">Thoerl  </t>
         </is>
       </c>
       <c r="C1461" t="n">
@@ -42811,7 +42811,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tragöß  </t>
+          <t xml:space="preserve">Tragoess  </t>
         </is>
       </c>
       <c r="C1462" t="n">
@@ -42985,7 +42985,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frauental an der Laßnitz  </t>
+          <t xml:space="preserve">Frauental an der Lassnitz  </t>
         </is>
       </c>
       <c r="C1468" t="n">
@@ -43159,7 +43159,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groß Sankt Florian  </t>
+          <t xml:space="preserve">Gross Sankt Florian  </t>
         </is>
       </c>
       <c r="C1474" t="n">
@@ -43188,7 +43188,7 @@
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großradl  </t>
+          <t xml:space="preserve">Grossradl  </t>
         </is>
       </c>
       <c r="C1475" t="n">
@@ -43449,7 +43449,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pölfing-Brunn  </t>
+          <t xml:space="preserve">Poelfing-Brunn  </t>
         </is>
       </c>
       <c r="C1484" t="n">
@@ -43855,7 +43855,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trahütten  </t>
+          <t xml:space="preserve">Trahuetten  </t>
         </is>
       </c>
       <c r="C1498" t="n">
@@ -43942,7 +43942,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wettmannstätten  </t>
+          <t xml:space="preserve">Wettmannstaetten  </t>
         </is>
       </c>
       <c r="C1501" t="n">
@@ -44116,7 +44116,7 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bairisch Kölldorf  </t>
+          <t xml:space="preserve">Bairisch Koelldorf  </t>
         </is>
       </c>
       <c r="C1507" t="n">
@@ -44261,7 +44261,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eichkögl  </t>
+          <t xml:space="preserve">Eichkoegl  </t>
         </is>
       </c>
       <c r="C1512" t="n">
@@ -44406,7 +44406,7 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frutten-Gießelsdorf  </t>
+          <t xml:space="preserve">Frutten-Giesselsdorf  </t>
         </is>
       </c>
       <c r="C1517" t="n">
@@ -44493,7 +44493,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gniebing-Weißenbach  </t>
+          <t xml:space="preserve">Gniebing-Weissenbach  </t>
         </is>
       </c>
       <c r="C1520" t="n">
@@ -44899,7 +44899,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lödersdorf  </t>
+          <t xml:space="preserve">Loedersdorf  </t>
         </is>
       </c>
       <c r="C1534" t="n">
@@ -45015,7 +45015,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühldorf bei Feldbach  </t>
+          <t xml:space="preserve">Muehldorf bei Feldbach  </t>
         </is>
       </c>
       <c r="C1538" t="n">
@@ -45624,7 +45624,7 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Altenmarkt bei Fürstenfeld  </t>
+          <t xml:space="preserve">Altenmarkt bei Fuerstenfeld  </t>
         </is>
       </c>
       <c r="C1559" t="n">
@@ -45711,7 +45711,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fürstenfeld  </t>
+          <t xml:space="preserve">Fuerstenfeld  </t>
         </is>
       </c>
       <c r="C1562" t="n">
@@ -45740,7 +45740,7 @@
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großsteinbach  </t>
+          <t xml:space="preserve">Grosssteinbach  </t>
         </is>
       </c>
       <c r="C1563" t="n">
@@ -45769,7 +45769,7 @@
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großwilfersdorf  </t>
+          <t xml:space="preserve">Grosswilfersdorf  </t>
         </is>
       </c>
       <c r="C1564" t="n">
@@ -45856,7 +45856,7 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loipersdorf bei Fürstenfeld  </t>
+          <t xml:space="preserve">Loipersdorf bei Fuerstenfeld  </t>
         </is>
       </c>
       <c r="C1567" t="n">
@@ -45943,7 +45943,7 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t xml:space="preserve">Söchau  </t>
+          <t xml:space="preserve">Soechau  </t>
         </is>
       </c>
       <c r="C1570" t="n">
@@ -46001,7 +46001,7 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t xml:space="preserve">Übersbach  </t>
+          <t xml:space="preserve">Uebersbach  </t>
         </is>
       </c>
       <c r="C1572" t="n">
@@ -46320,7 +46320,7 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gössendorf  </t>
+          <t xml:space="preserve">Goessendorf  </t>
         </is>
       </c>
       <c r="C1583" t="n">
@@ -46436,7 +46436,7 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großstübing  </t>
+          <t xml:space="preserve">Grossstuebing  </t>
         </is>
       </c>
       <c r="C1587" t="n">
@@ -46581,7 +46581,7 @@
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hausmannstätten  </t>
+          <t xml:space="preserve">Hausmannstaetten  </t>
         </is>
       </c>
       <c r="C1592" t="n">
@@ -46639,7 +46639,7 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höf-Präbach  </t>
+          <t xml:space="preserve">Hoef-Praebach  </t>
         </is>
       </c>
       <c r="C1594" t="n">
@@ -46668,7 +46668,7 @@
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Judendorf-Straßengel  </t>
+          <t xml:space="preserve">Judendorf-Strassengel  </t>
         </is>
       </c>
       <c r="C1595" t="n">
@@ -46842,7 +46842,7 @@
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laßnitzhöhe  </t>
+          <t xml:space="preserve">Lassnitzhoehe  </t>
         </is>
       </c>
       <c r="C1601" t="n">
@@ -47074,7 +47074,7 @@
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t xml:space="preserve">Röthelstein  </t>
+          <t xml:space="preserve">Roethelstein  </t>
         </is>
       </c>
       <c r="C1609" t="n">
@@ -47103,7 +47103,7 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Bartholomä  </t>
+          <t xml:space="preserve">Sankt Bartholomae  </t>
         </is>
       </c>
       <c r="C1610" t="n">
@@ -47451,7 +47451,7 @@
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t xml:space="preserve">Übelbach  </t>
+          <t xml:space="preserve">Uebelbach  </t>
         </is>
       </c>
       <c r="C1622" t="n">
@@ -47480,7 +47480,7 @@
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unterpremstätten  </t>
+          <t xml:space="preserve">Unterpremstaetten  </t>
         </is>
       </c>
       <c r="C1623" t="n">
@@ -47654,7 +47654,7 @@
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zwaring-Pöls  </t>
+          <t xml:space="preserve">Zwaring-Poels  </t>
         </is>
       </c>
       <c r="C1629" t="n">
@@ -47973,7 +47973,7 @@
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großhart  </t>
+          <t xml:space="preserve">Grosshart  </t>
         </is>
       </c>
       <c r="C1640" t="n">
@@ -48234,7 +48234,7 @@
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mönichwald  </t>
+          <t xml:space="preserve">Moenichwald  </t>
         </is>
       </c>
       <c r="C1649" t="n">
@@ -48321,7 +48321,7 @@
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöllau  </t>
+          <t xml:space="preserve">Poellau  </t>
         </is>
       </c>
       <c r="C1652" t="n">
@@ -48350,7 +48350,7 @@
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöllauberg  </t>
+          <t xml:space="preserve">Poellauberg  </t>
         </is>
       </c>
       <c r="C1653" t="n">
@@ -48727,7 +48727,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäffern  </t>
+          <t xml:space="preserve">Schaeffern  </t>
         </is>
       </c>
       <c r="C1666" t="n">
@@ -48785,7 +48785,7 @@
       </c>
       <c r="B1668" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönegg bei Pöllau  </t>
+          <t xml:space="preserve">Schoenegg bei Poellau  </t>
         </is>
       </c>
       <c r="C1668" t="n">
@@ -49104,7 +49104,7 @@
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wörth an der Lafnitz  </t>
+          <t xml:space="preserve">Woerth an der Lafnitz  </t>
         </is>
       </c>
       <c r="C1679" t="n">
@@ -49452,7 +49452,7 @@
       </c>
       <c r="B1691" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pöls  </t>
+          <t xml:space="preserve">Poels  </t>
         </is>
       </c>
       <c r="C1691" t="n">
@@ -49539,7 +49539,7 @@
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reisstraße  </t>
+          <t xml:space="preserve">Reisstrasse  </t>
         </is>
       </c>
       <c r="C1694" t="n">
@@ -49655,7 +49655,7 @@
       </c>
       <c r="B1698" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Oswald-Möderbrugg  </t>
+          <t xml:space="preserve">Sankt Oswald-Moederbrugg  </t>
         </is>
       </c>
       <c r="C1698" t="n">
@@ -49771,7 +49771,7 @@
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißkirchen in Steiermark  </t>
+          <t xml:space="preserve">Weisskirchen in Steiermark  </t>
         </is>
       </c>
       <c r="C1702" t="n">
@@ -49945,7 +49945,7 @@
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großlobming  </t>
+          <t xml:space="preserve">Grosslobming  </t>
         </is>
       </c>
       <c r="C1708" t="n">
@@ -50496,7 +50496,7 @@
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t xml:space="preserve">Glanz an der Weinstraße  </t>
+          <t xml:space="preserve">Glanz an der Weinstrasse  </t>
         </is>
       </c>
       <c r="C1727" t="n">
@@ -50525,7 +50525,7 @@
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gleinstätten  </t>
+          <t xml:space="preserve">Gleinstaetten  </t>
         </is>
       </c>
       <c r="C1728" t="n">
@@ -50583,7 +50583,7 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großklein  </t>
+          <t xml:space="preserve">Grossklein  </t>
         </is>
       </c>
       <c r="C1730" t="n">
@@ -51018,7 +51018,7 @@
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ratsch an der Weinstraße  </t>
+          <t xml:space="preserve">Ratsch an der Weinstrasse  </t>
         </is>
       </c>
       <c r="C1745" t="n">
@@ -51076,7 +51076,7 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Andrä-Höch  </t>
+          <t xml:space="preserve">Sankt Andrae-Hoech  </t>
         </is>
       </c>
       <c r="C1747" t="n">
@@ -51192,7 +51192,7 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Nikolai ob Draßling  </t>
+          <t xml:space="preserve">Sankt Nikolai ob Drassling  </t>
         </is>
       </c>
       <c r="C1751" t="n">
@@ -51279,7 +51279,7 @@
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schloßberg  </t>
+          <t xml:space="preserve">Schlossberg  </t>
         </is>
       </c>
       <c r="C1754" t="n">
@@ -51395,7 +51395,7 @@
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Straß in Steiermark  </t>
+          <t xml:space="preserve">Strass in Steiermark  </t>
         </is>
       </c>
       <c r="C1758" t="n">
@@ -51424,7 +51424,7 @@
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sulztal an der Weinstraße  </t>
+          <t xml:space="preserve">Sulztal an der Weinstrasse  </t>
         </is>
       </c>
       <c r="C1759" t="n">
@@ -52149,7 +52149,7 @@
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wald am Schoberpaß  </t>
+          <t xml:space="preserve">Wald am Schoberpass  </t>
         </is>
       </c>
       <c r="C1784" t="n">
@@ -52526,7 +52526,7 @@
       </c>
       <c r="B1797" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gössenberg  </t>
+          <t xml:space="preserve">Goessenberg  </t>
         </is>
       </c>
       <c r="C1797" t="n">
@@ -52555,7 +52555,7 @@
       </c>
       <c r="B1798" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gröbming  </t>
+          <t xml:space="preserve">Groebming  </t>
         </is>
       </c>
       <c r="C1798" t="n">
@@ -52584,7 +52584,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t xml:space="preserve">Großsölk  </t>
+          <t xml:space="preserve">Grosssoelk  </t>
         </is>
       </c>
       <c r="C1799" t="n">
@@ -52758,7 +52758,7 @@
       </c>
       <c r="B1805" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kleinsölk  </t>
+          <t xml:space="preserve">Kleinsoelk  </t>
         </is>
       </c>
       <c r="C1805" t="n">
@@ -52932,7 +52932,7 @@
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niederöblarn  </t>
+          <t xml:space="preserve">Niederoeblarn  </t>
         </is>
       </c>
       <c r="C1811" t="n">
@@ -52961,7 +52961,7 @@
       </c>
       <c r="B1812" t="inlineStr">
         <is>
-          <t xml:space="preserve">Öblarn  </t>
+          <t xml:space="preserve">Oeblarn  </t>
         </is>
       </c>
       <c r="C1812" t="n">
@@ -53135,7 +53135,7 @@
       </c>
       <c r="B1818" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pürgg-Trautenfels  </t>
+          <t xml:space="preserve">Puergg-Trautenfels  </t>
         </is>
       </c>
       <c r="C1818" t="n">
@@ -53309,7 +53309,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Nikolai im Sölktal  </t>
+          <t xml:space="preserve">Sankt Nikolai im Soelktal  </t>
         </is>
       </c>
       <c r="C1824" t="n">
@@ -53512,7 +53512,7 @@
       </c>
       <c r="B1831" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenbach an der Enns  </t>
+          <t xml:space="preserve">Weissenbach an der Enns  </t>
         </is>
       </c>
       <c r="C1831" t="n">
@@ -53541,7 +53541,7 @@
       </c>
       <c r="B1832" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenbach bei Liezen  </t>
+          <t xml:space="preserve">Weissenbach bei Liezen  </t>
         </is>
       </c>
       <c r="C1832" t="n">
@@ -53570,7 +53570,7 @@
       </c>
       <c r="B1833" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weng im Gesäuse  </t>
+          <t xml:space="preserve">Weng im Gesaeuse  </t>
         </is>
       </c>
       <c r="C1833" t="n">
@@ -53628,7 +53628,7 @@
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wörschach  </t>
+          <t xml:space="preserve">Woerschach  </t>
         </is>
       </c>
       <c r="C1835" t="n">
@@ -53657,7 +53657,7 @@
       </c>
       <c r="B1836" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allerheiligen im Mürztal  </t>
+          <t xml:space="preserve">Allerheiligen im Muerztal  </t>
         </is>
       </c>
       <c r="C1836" t="n">
@@ -53860,7 +53860,7 @@
       </c>
       <c r="B1843" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mitterdorf im Mürztal  </t>
+          <t xml:space="preserve">Mitterdorf im Muerztal  </t>
         </is>
       </c>
       <c r="C1843" t="n">
@@ -53889,7 +53889,7 @@
       </c>
       <c r="B1844" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mürzhofen  </t>
+          <t xml:space="preserve">Muerzhofen  </t>
         </is>
       </c>
       <c r="C1844" t="n">
@@ -53918,7 +53918,7 @@
       </c>
       <c r="B1845" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mürzsteg  </t>
+          <t xml:space="preserve">Muerzsteg  </t>
         </is>
       </c>
       <c r="C1845" t="n">
@@ -53947,7 +53947,7 @@
       </c>
       <c r="B1846" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mürzzuschlag  </t>
+          <t xml:space="preserve">Muerzzuschlag  </t>
         </is>
       </c>
       <c r="C1846" t="n">
@@ -53976,7 +53976,7 @@
       </c>
       <c r="B1847" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neuberg an der Mürz  </t>
+          <t xml:space="preserve">Neuberg an der Muerz  </t>
         </is>
       </c>
       <c r="C1847" t="n">
@@ -54034,7 +54034,7 @@
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stanz im Mürztal  </t>
+          <t xml:space="preserve">Stanz im Muerztal  </t>
         </is>
       </c>
       <c r="C1849" t="n">
@@ -54092,7 +54092,7 @@
       </c>
       <c r="B1851" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wartberg im Mürztal  </t>
+          <t xml:space="preserve">Wartberg im Muerztal  </t>
         </is>
       </c>
       <c r="C1851" t="n">
@@ -54121,7 +54121,7 @@
       </c>
       <c r="B1852" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dürnstein in der Steiermark  </t>
+          <t xml:space="preserve">Duernstein in der Steiermark  </t>
         </is>
       </c>
       <c r="C1852" t="n">
@@ -54237,7 +54237,7 @@
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krakauhintermühlen  </t>
+          <t xml:space="preserve">Krakauhintermuehlen  </t>
         </is>
       </c>
       <c r="C1856" t="n">
@@ -54324,7 +54324,7 @@
       </c>
       <c r="B1859" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laßnitz bei Murau  </t>
+          <t xml:space="preserve">Lassnitz bei Murau  </t>
         </is>
       </c>
       <c r="C1859" t="n">
@@ -54382,7 +54382,7 @@
       </c>
       <c r="B1861" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühlen  </t>
+          <t xml:space="preserve">Muehlen  </t>
         </is>
       </c>
       <c r="C1861" t="n">
@@ -54469,7 +54469,7 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niederwölz  </t>
+          <t xml:space="preserve">Niederwoelz  </t>
         </is>
       </c>
       <c r="C1864" t="n">
@@ -54498,7 +54498,7 @@
       </c>
       <c r="B1865" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oberwölz Stadt  </t>
+          <t xml:space="preserve">Oberwoelz Stadt  </t>
         </is>
       </c>
       <c r="C1865" t="n">
@@ -54527,7 +54527,7 @@
       </c>
       <c r="B1866" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oberwölz Umgebung  </t>
+          <t xml:space="preserve">Oberwoelz Umgebung  </t>
         </is>
       </c>
       <c r="C1866" t="n">
@@ -54904,7 +54904,7 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schöder  </t>
+          <t xml:space="preserve">Schoeder  </t>
         </is>
       </c>
       <c r="C1879" t="n">
@@ -54933,7 +54933,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönberg-Lachtal  </t>
+          <t xml:space="preserve">Schoenberg-Lachtal  </t>
         </is>
       </c>
       <c r="C1880" t="n">
@@ -55078,7 +55078,7 @@
       </c>
       <c r="B1885" t="inlineStr">
         <is>
-          <t xml:space="preserve">Winklern bei Oberwölz  </t>
+          <t xml:space="preserve">Winklern bei Oberwoelz  </t>
         </is>
       </c>
       <c r="C1885" t="n">
@@ -55368,7 +55368,7 @@
       </c>
       <c r="B1895" t="inlineStr">
         <is>
-          <t xml:space="preserve">Klöch  </t>
+          <t xml:space="preserve">Kloech  </t>
         </is>
       </c>
       <c r="C1895" t="n">
@@ -55397,7 +55397,7 @@
       </c>
       <c r="B1896" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mettersdorf am Saßbach  </t>
+          <t xml:space="preserve">Mettersdorf am Sassbach  </t>
         </is>
       </c>
       <c r="C1896" t="n">
@@ -55629,7 +55629,7 @@
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trössing  </t>
+          <t xml:space="preserve">Troessing  </t>
         </is>
       </c>
       <c r="C1904" t="n">
@@ -55658,7 +55658,7 @@
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weinburg am Saßbach  </t>
+          <t xml:space="preserve">Weinburg am Sassbach  </t>
         </is>
       </c>
       <c r="C1905" t="n">
@@ -55687,7 +55687,7 @@
       </c>
       <c r="B1906" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bärnbach  </t>
+          <t xml:space="preserve">Baernbach  </t>
         </is>
       </c>
       <c r="C1906" t="n">
@@ -55803,7 +55803,7 @@
       </c>
       <c r="B1910" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gößnitz  </t>
+          <t xml:space="preserve">Goessnitz  </t>
         </is>
       </c>
       <c r="C1910" t="n">
@@ -55919,7 +55919,7 @@
       </c>
       <c r="B1914" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köflach  </t>
+          <t xml:space="preserve">Koeflach  </t>
         </is>
       </c>
       <c r="C1914" t="n">
@@ -56238,7 +56238,7 @@
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Johann-Köppling  </t>
+          <t xml:space="preserve">Sankt Johann-Koeppling  </t>
         </is>
       </c>
       <c r="C1925" t="n">
@@ -56267,7 +56267,7 @@
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sankt Martin am Wöllmißberg  </t>
+          <t xml:space="preserve">Sankt Martin am Woellmissberg  </t>
         </is>
       </c>
       <c r="C1926" t="n">
@@ -56296,7 +56296,7 @@
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t xml:space="preserve">Söding  </t>
+          <t xml:space="preserve">Soeding  </t>
         </is>
       </c>
       <c r="C1927" t="n">
@@ -56325,7 +56325,7 @@
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t xml:space="preserve">Södingberg  </t>
+          <t xml:space="preserve">Soedingberg  </t>
         </is>
       </c>
       <c r="C1928" t="n">
@@ -56905,7 +56905,7 @@
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hofstätten an der Raab  </t>
+          <t xml:space="preserve">Hofstaetten an der Raab  </t>
         </is>
       </c>
       <c r="C1948" t="n">
@@ -57108,7 +57108,7 @@
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laßnitzthal  </t>
+          <t xml:space="preserve">Lassnitzthal  </t>
         </is>
       </c>
       <c r="C1955" t="n">
@@ -57485,7 +57485,7 @@
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preßguts  </t>
+          <t xml:space="preserve">Pressguts  </t>
         </is>
       </c>
       <c r="C1968" t="n">
@@ -58181,7 +58181,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karrösten  </t>
+          <t xml:space="preserve">Karroesten  </t>
         </is>
       </c>
       <c r="C1992" t="n">
@@ -58210,7 +58210,7 @@
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t xml:space="preserve">Längenfeld  </t>
+          <t xml:space="preserve">Laengenfeld  </t>
         </is>
       </c>
       <c r="C1993" t="n">
@@ -58297,7 +58297,7 @@
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mötz  </t>
+          <t xml:space="preserve">Moetz  </t>
         </is>
       </c>
       <c r="C1996" t="n">
@@ -58558,7 +58558,7 @@
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sölden  </t>
+          <t xml:space="preserve">Soelden  </t>
         </is>
       </c>
       <c r="C2005" t="n">
@@ -58877,7 +58877,7 @@
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ellbögen  </t>
+          <t xml:space="preserve">Ellboegen  </t>
         </is>
       </c>
       <c r="C2016" t="n">
@@ -59022,7 +59022,7 @@
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Götzens  </t>
+          <t xml:space="preserve">Goetzens  </t>
         </is>
       </c>
       <c r="C2021" t="n">
@@ -59486,7 +59486,7 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mühlbachl  </t>
+          <t xml:space="preserve">Muehlbachl  </t>
         </is>
       </c>
       <c r="C2037" t="n">
@@ -60066,7 +60066,7 @@
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönberg im Stubaital  </t>
+          <t xml:space="preserve">Schoenberg im Stubaital  </t>
         </is>
       </c>
       <c r="C2057" t="n">
@@ -60443,7 +60443,7 @@
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t xml:space="preserve">Völs  </t>
+          <t xml:space="preserve">Voels  </t>
         </is>
       </c>
       <c r="C2070" t="n">
@@ -60588,7 +60588,7 @@
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aurach bei Kitzbühel  </t>
+          <t xml:space="preserve">Aurach bei Kitzbuehel  </t>
         </is>
       </c>
       <c r="C2075" t="n">
@@ -60878,7 +60878,7 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kitzbühel  </t>
+          <t xml:space="preserve">Kitzbuehel  </t>
         </is>
       </c>
       <c r="C2085" t="n">
@@ -60907,7 +60907,7 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kössen  </t>
+          <t xml:space="preserve">Koessen  </t>
         </is>
       </c>
       <c r="C2086" t="n">
@@ -60965,7 +60965,7 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reith bei Kitzbühel  </t>
+          <t xml:space="preserve">Reith bei Kitzbuehel  </t>
         </is>
       </c>
       <c r="C2088" t="n">
@@ -61255,7 +61255,7 @@
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bad Häring  </t>
+          <t xml:space="preserve">Bad Haering  </t>
         </is>
       </c>
       <c r="C2098" t="n">
@@ -61632,7 +61632,7 @@
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Münster  </t>
+          <t xml:space="preserve">Muenster  </t>
         </is>
       </c>
       <c r="C2111" t="n">
@@ -61806,7 +61806,7 @@
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rettenschöss  </t>
+          <t xml:space="preserve">Rettenschoess  </t>
         </is>
       </c>
       <c r="C2117" t="n">
@@ -61893,7 +61893,7 @@
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Söll  </t>
+          <t xml:space="preserve">Soell  </t>
         </is>
       </c>
       <c r="C2120" t="n">
@@ -61980,7 +61980,7 @@
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wildschönau  </t>
+          <t xml:space="preserve">Wildschoenau  </t>
         </is>
       </c>
       <c r="C2123" t="n">
@@ -62009,7 +62009,7 @@
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wörgl  </t>
+          <t xml:space="preserve">Woergl  </t>
         </is>
       </c>
       <c r="C2124" t="n">
@@ -62125,7 +62125,7 @@
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fließ  </t>
+          <t xml:space="preserve">Fliess  </t>
         </is>
       </c>
       <c r="C2128" t="n">
@@ -62183,7 +62183,7 @@
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Galtür  </t>
+          <t xml:space="preserve">Galtuer  </t>
         </is>
       </c>
       <c r="C2130" t="n">
@@ -62647,7 +62647,7 @@
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schönwies  </t>
+          <t xml:space="preserve">Schoenwies  </t>
         </is>
       </c>
       <c r="C2146" t="n">
@@ -62850,7 +62850,7 @@
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tösens  </t>
+          <t xml:space="preserve">Toesens  </t>
         </is>
       </c>
       <c r="C2153" t="n">
@@ -63053,7 +63053,7 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Außervillgraten  </t>
+          <t xml:space="preserve">Ausservillgraten  </t>
         </is>
       </c>
       <c r="C2160" t="n">
@@ -63082,7 +63082,7 @@
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dölsach  </t>
+          <t xml:space="preserve">Doelsach  </t>
         </is>
       </c>
       <c r="C2161" t="n">
@@ -63256,7 +63256,7 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kals am Großglockner  </t>
+          <t xml:space="preserve">Kals am Grossglockner  </t>
         </is>
       </c>
       <c r="C2167" t="n">
@@ -63459,7 +63459,7 @@
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nußdorf-Debant  </t>
+          <t xml:space="preserve">Nussdorf-Debant  </t>
         </is>
       </c>
       <c r="C2174" t="n">
@@ -63546,7 +63546,7 @@
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prägraten am Großvenediger  </t>
+          <t xml:space="preserve">Praegraten am Grossvenediger  </t>
         </is>
       </c>
       <c r="C2177" t="n">
@@ -64184,7 +64184,7 @@
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grän  </t>
+          <t xml:space="preserve">Graen  </t>
         </is>
       </c>
       <c r="C2199" t="n">
@@ -64213,7 +64213,7 @@
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Häselgehr  </t>
+          <t xml:space="preserve">Haeselgehr  </t>
         </is>
       </c>
       <c r="C2200" t="n">
@@ -64300,7 +64300,7 @@
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höfen  </t>
+          <t xml:space="preserve">Hoefen  </t>
         </is>
       </c>
       <c r="C2203" t="n">
@@ -64532,7 +64532,7 @@
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nesselwängle  </t>
+          <t xml:space="preserve">Nesselwaengle  </t>
         </is>
       </c>
       <c r="C2211" t="n">
@@ -64851,7 +64851,7 @@
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wängle  </t>
+          <t xml:space="preserve">Waengle  </t>
         </is>
       </c>
       <c r="C2222" t="n">
@@ -64880,7 +64880,7 @@
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weißenbach am Lech  </t>
+          <t xml:space="preserve">Weissenbach am Lech  </t>
         </is>
       </c>
       <c r="C2223" t="n">
@@ -64909,7 +64909,7 @@
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zöblen  </t>
+          <t xml:space="preserve">Zoeblen  </t>
         </is>
       </c>
       <c r="C2224" t="n">
@@ -65141,7 +65141,7 @@
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fügen  </t>
+          <t xml:space="preserve">Fuegen  </t>
         </is>
       </c>
       <c r="C2232" t="n">
@@ -65170,7 +65170,7 @@
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fügenberg  </t>
+          <t xml:space="preserve">Fuegenberg  </t>
         </is>
       </c>
       <c r="C2233" t="n">
@@ -66069,7 +66069,7 @@
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bartholomäberg  </t>
+          <t xml:space="preserve">Bartholomaeberg  </t>
         </is>
       </c>
       <c r="C2264" t="n">
@@ -66214,7 +66214,7 @@
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bürs  </t>
+          <t xml:space="preserve">Buers  </t>
         </is>
       </c>
       <c r="C2269" t="n">
@@ -66243,7 +66243,7 @@
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bürserberg  </t>
+          <t xml:space="preserve">Buerserberg  </t>
         </is>
       </c>
       <c r="C2270" t="n">
@@ -66388,7 +66388,7 @@
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Klösterle  </t>
+          <t xml:space="preserve">Kloesterle  </t>
         </is>
       </c>
       <c r="C2275" t="n">
@@ -66446,7 +66446,7 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lorüns  </t>
+          <t xml:space="preserve">Loruens  </t>
         </is>
       </c>
       <c r="C2277" t="n">
@@ -66533,7 +66533,7 @@
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nüziders  </t>
+          <t xml:space="preserve">Nueziders  </t>
         </is>
       </c>
       <c r="C2280" t="n">
@@ -66794,7 +66794,7 @@
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thüringen  </t>
+          <t xml:space="preserve">Thueringen  </t>
         </is>
       </c>
       <c r="C2289" t="n">
@@ -66823,7 +66823,7 @@
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thüringerberg  </t>
+          <t xml:space="preserve">Thueringerberg  </t>
         </is>
       </c>
       <c r="C2290" t="n">
@@ -67142,7 +67142,7 @@
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Damüls  </t>
+          <t xml:space="preserve">Damuels  </t>
         </is>
       </c>
       <c r="C2301" t="n">
@@ -67258,7 +67258,7 @@
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fußach  </t>
+          <t xml:space="preserve">Fussach  </t>
         </is>
       </c>
       <c r="C2305" t="n">
@@ -67287,7 +67287,7 @@
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gaißau  </t>
+          <t xml:space="preserve">Gaissau  </t>
         </is>
       </c>
       <c r="C2306" t="n">
@@ -67374,7 +67374,7 @@
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Höchst  </t>
+          <t xml:space="preserve">Hoechst  </t>
         </is>
       </c>
       <c r="C2309" t="n">
@@ -67432,7 +67432,7 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hörbranz  </t>
+          <t xml:space="preserve">Hoerbranz  </t>
         </is>
       </c>
       <c r="C2311" t="n">
@@ -67722,7 +67722,7 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Möggers  </t>
+          <t xml:space="preserve">Moeggers  </t>
         </is>
       </c>
       <c r="C2321" t="n">
@@ -67867,7 +67867,7 @@
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröcken  </t>
+          <t xml:space="preserve">Schroecken  </t>
         </is>
       </c>
       <c r="C2326" t="n">
@@ -67954,7 +67954,7 @@
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sibratsgfäll  </t>
+          <t xml:space="preserve">Sibratsgfaell  </t>
         </is>
       </c>
       <c r="C2329" t="n">
@@ -68186,7 +68186,7 @@
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Düns  </t>
+          <t xml:space="preserve">Duens  </t>
         </is>
       </c>
       <c r="C2337" t="n">
@@ -68215,7 +68215,7 @@
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dünserberg  </t>
+          <t xml:space="preserve">Duenserberg  </t>
         </is>
       </c>
       <c r="C2338" t="n">
@@ -68331,7 +68331,7 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Göfis  </t>
+          <t xml:space="preserve">Goefis  </t>
         </is>
       </c>
       <c r="C2342" t="n">
@@ -68360,7 +68360,7 @@
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Götzis  </t>
+          <t xml:space="preserve">Goetzis  </t>
         </is>
       </c>
       <c r="C2343" t="n">
@@ -68476,7 +68476,7 @@
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mäder  </t>
+          <t xml:space="preserve">Maeder  </t>
         </is>
       </c>
       <c r="C2347" t="n">
@@ -68563,7 +68563,7 @@
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t xml:space="preserve">Röns  </t>
+          <t xml:space="preserve">Roens  </t>
         </is>
       </c>
       <c r="C2350" t="n">
@@ -68592,7 +68592,7 @@
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Röthis  </t>
+          <t xml:space="preserve">Roethis  </t>
         </is>
       </c>
       <c r="C2351" t="n">
@@ -68737,7 +68737,7 @@
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t xml:space="preserve">Übersaxen  </t>
+          <t xml:space="preserve">Uebersaxen  </t>
         </is>
       </c>
       <c r="C2356" t="n">
@@ -68911,7 +68911,7 @@
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wien  3.,Landstraße  </t>
+          <t xml:space="preserve">Wien  3.,Landstrasse  </t>
         </is>
       </c>
       <c r="C2362" t="n">
@@ -69259,7 +69259,7 @@
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wien 15.,Rudolfsheim-Fünfhaus  </t>
+          <t xml:space="preserve">Wien 15.,Rudolfsheim-Fuenfhaus  </t>
         </is>
       </c>
       <c r="C2374" t="n">
@@ -69346,7 +69346,7 @@
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wien 18.,Währing  </t>
+          <t xml:space="preserve">Wien 18.,Waehring  </t>
         </is>
       </c>
       <c r="C2377" t="n">
@@ -69375,7 +69375,7 @@
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wien 19.,Döbling  </t>
+          <t xml:space="preserve">Wien 19.,Doebling  </t>
         </is>
       </c>
       <c r="C2378" t="n">
